--- a/dataset/Financial.xlsx
+++ b/dataset/Financial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F0D465-CF14-0F4D-BF74-2B92830516D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0852739-E806-074E-B55D-53D350669E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="2220" windowWidth="26860" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="2220" windowWidth="19260" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Unit</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>SubType</t>
-  </si>
-  <si>
-    <t>Brand</t>
   </si>
   <si>
     <t>Model</t>
@@ -585,31 +582,31 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +619,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,13 +639,13 @@
     <col min="1007" max="1024" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -656,387 +653,382 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
+      <c r="E16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D19" s="8">
+        <v>42917</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F19" s="19">
+        <v>543</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" ref="G19:G29" si="0">F19/E19</f>
+        <v>476.31578947368428</v>
+      </c>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <v>0</v>
+        <f t="shared" ref="B20:B40" si="1">1+B19</f>
+        <v>1</v>
       </c>
       <c r="D20" s="8">
-        <v>42917</v>
+        <v>43101</v>
       </c>
       <c r="E20" s="18">
-        <v>1.1399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F20" s="19">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ref="G20:G30" si="0">F20/E20</f>
-        <v>476.31578947368428</v>
-      </c>
-      <c r="H20" s="14"/>
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <f t="shared" ref="B21:B41" si="1">1+B20</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D21" s="8">
-        <v>43101</v>
+        <v>43282</v>
       </c>
       <c r="E21" s="18">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F21" s="19">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>483.62068965517244</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="8">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="E22" s="18">
-        <v>1.1599999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F22" s="19">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="0"/>
-        <v>483.62068965517244</v>
+        <v>485.08771929824564</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="8">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="E23" s="18">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F23" s="19">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="0"/>
-        <v>485.08771929824564</v>
+        <v>473.21428571428567</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="8">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="E24" s="18">
         <v>1.1200000000000001</v>
       </c>
       <c r="F24" s="19">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="0"/>
-        <v>473.21428571428567</v>
+        <v>470.53571428571422</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="E25" s="18">
         <v>1.1200000000000001</v>
       </c>
       <c r="F25" s="19">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="0"/>
-        <v>470.53571428571422</v>
+        <v>494.64285714285711</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="8">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="E26" s="18">
-        <v>1.1200000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="F26" s="19">
-        <v>554</v>
+        <v>630</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="0"/>
-        <v>494.64285714285711</v>
+        <v>516.39344262295083</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8">
-        <v>44197</v>
+        <v>44378</v>
       </c>
       <c r="E27" s="18">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="F27" s="19">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="0"/>
-        <v>516.39344262295083</v>
+        <v>495.76271186440681</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="8">
-        <v>44378</v>
+        <v>44562</v>
       </c>
       <c r="E28" s="18">
-        <v>1.18</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F28" s="19">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="0"/>
-        <v>495.76271186440681</v>
-      </c>
+        <v>477.87610619469029</v>
+      </c>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="8">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="E29" s="18">
-        <v>1.1299999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="F29" s="19">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="0"/>
-        <v>477.87610619469029</v>
-      </c>
-      <c r="H29" s="14"/>
+        <v>408.65384615384613</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D30" s="8">
-        <v>44743</v>
-      </c>
-      <c r="E30" s="18">
-        <v>1.04</v>
-      </c>
-      <c r="F30" s="19">
-        <v>425</v>
-      </c>
-      <c r="G30" s="13">
-        <f t="shared" si="0"/>
-        <v>408.65384615384613</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D41" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB49170-8CCC-F14B-B6A8-CDFD038F79A5}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,14 +1052,14 @@
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
       <c r="D1" s="6"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1069,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1089,31 +1081,31 @@
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="15"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="15"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1115,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1125,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1143,169 +1135,171 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="15"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="15"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
+      <c r="E18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>28</v>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>42917</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>10</v>
+      </c>
+      <c r="H19" s="14">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <v>0</v>
+        <f t="shared" ref="B20:B40" si="0">1+B19</f>
+        <v>1</v>
       </c>
       <c r="D20" s="8">
-        <v>42917</v>
-      </c>
-      <c r="E20" s="18">
-        <v>4</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
-        <v>10</v>
-      </c>
-      <c r="H20" s="14">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
+        <v>43101</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <f t="shared" ref="B21:B41" si="0">1+B20</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D21" s="8">
-        <v>43101</v>
+        <v>43282</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
@@ -1314,10 +1308,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="8">
-        <v>43282</v>
+        <v>43466</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="19"/>
@@ -1326,10 +1320,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="8">
-        <v>43466</v>
+        <v>43647</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
@@ -1338,10 +1332,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="8">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
@@ -1350,42 +1344,42 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>35</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="8">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="13">
-        <v>12</v>
-      </c>
-      <c r="H26">
-        <v>35</v>
-      </c>
-      <c r="I26">
-        <v>15</v>
-      </c>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8">
-        <v>44197</v>
+        <v>44378</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
@@ -1394,44 +1388,42 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="8">
-        <v>44378</v>
+        <v>44562</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
       <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="8">
-        <v>44562</v>
+        <v>44743</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D30" s="8">
-        <v>44743</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
@@ -1441,7 +1433,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15"/>
@@ -1451,7 +1443,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="15"/>
@@ -1461,7 +1453,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15"/>
@@ -1471,7 +1463,7 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
@@ -1481,7 +1473,7 @@
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15"/>
@@ -1491,7 +1483,7 @@
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15"/>
@@ -1501,7 +1493,7 @@
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15"/>
@@ -1511,34 +1503,24 @@
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2">
+        <v>5</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="2">
-        <v>5</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/Financial.xlsx
+++ b/dataset/Financial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0852739-E806-074E-B55D-53D350669E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC2F504-7D7E-AA4E-8B17-5C10F1759CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="2220" windowWidth="19260" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="2220" windowWidth="19260" windowHeight="8820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -142,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,10 +227,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -277,9 +285,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3A6842-EA70-9542-8755-53AE084E761E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -619,10 +631,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,13 +651,13 @@
     <col min="1007" max="1024" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -653,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -661,7 +673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -669,366 +681,367 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:8" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>42917</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F19" s="19">
-        <v>543</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" ref="G19:G29" si="0">F19/E19</f>
-        <v>476.31578947368428</v>
-      </c>
-      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <f t="shared" ref="B20:B40" si="1">1+B19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>43101</v>
+        <v>42917</v>
       </c>
       <c r="E20" s="18">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F20" s="19">
-        <v>582</v>
+        <v>543</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="0"/>
-        <v>485</v>
-      </c>
+        <f t="shared" ref="G20:G30" si="0">F20/E20</f>
+        <v>476.31578947368428</v>
+      </c>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="B21:B41" si="1">1+B20</f>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>43282</v>
+        <v>43101</v>
       </c>
       <c r="E21" s="18">
-        <v>1.1599999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F21" s="19">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="0"/>
-        <v>483.62068965517244</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="E22" s="18">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F22" s="19">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="0"/>
-        <v>485.08771929824564</v>
+        <v>483.62068965517244</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="E23" s="18">
-        <v>1.1200000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F23" s="19">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="0"/>
-        <v>473.21428571428567</v>
+        <v>485.08771929824564</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="8">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="E24" s="18">
         <v>1.1200000000000001</v>
       </c>
       <c r="F24" s="19">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="0"/>
-        <v>470.53571428571422</v>
+        <v>473.21428571428567</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="8">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="E25" s="18">
         <v>1.1200000000000001</v>
       </c>
       <c r="F25" s="19">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="0"/>
-        <v>494.64285714285711</v>
+        <v>470.53571428571422</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="E26" s="18">
-        <v>1.22</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F26" s="19">
-        <v>630</v>
+        <v>554</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="0"/>
-        <v>516.39344262295083</v>
+        <v>494.64285714285711</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="8">
-        <v>44378</v>
+        <v>44197</v>
       </c>
       <c r="E27" s="18">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="F27" s="19">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="0"/>
-        <v>495.76271186440681</v>
+        <v>516.39344262295083</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="8">
-        <v>44562</v>
+        <v>44378</v>
       </c>
       <c r="E28" s="18">
-        <v>1.1299999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="F28" s="19">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="0"/>
-        <v>477.87610619469029</v>
-      </c>
-      <c r="H28" s="14"/>
+        <v>495.76271186440681</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="8">
-        <v>44743</v>
+        <v>44562</v>
       </c>
       <c r="E29" s="18">
-        <v>1.04</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F29" s="19">
-        <v>425</v>
+        <v>540</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="0"/>
-        <v>408.65384615384613</v>
-      </c>
+        <v>477.87610619469029</v>
+      </c>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44743</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1.04</v>
+      </c>
+      <c r="F30" s="19">
+        <v>425</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="0"/>
+        <v>408.65384615384613</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D41" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB49170-8CCC-F14B-B6A8-CDFD038F79A5}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,14 +1065,14 @@
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="5"/>
       <c r="D1" s="6"/>
       <c r="E1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1082,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1094,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1106,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1118,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1128,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1138,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1148,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1158,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1155,151 +1168,146 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="15"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="15"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I17" s="20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B18" s="5"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>42917</v>
-      </c>
-      <c r="E19" s="18">
-        <v>4</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13">
-        <v>10</v>
-      </c>
-      <c r="H19" s="14">
-        <v>25</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <f t="shared" ref="B20:B40" si="0">1+B19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>43101</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="13"/>
+        <v>42917</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G20" s="13">
+        <v>10</v>
+      </c>
+      <c r="H20" s="14">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="B21:B41" si="0">1+B20</f>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>43282</v>
+        <v>43101</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
@@ -1308,10 +1316,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="19"/>
@@ -1320,10 +1328,10 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8">
-        <v>43647</v>
+        <v>43466</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
@@ -1332,10 +1340,10 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="8">
-        <v>43831</v>
+        <v>43647</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
@@ -1344,42 +1352,42 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="8">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="13">
-        <v>12</v>
-      </c>
-      <c r="H25">
-        <v>35</v>
-      </c>
-      <c r="I25">
-        <v>15</v>
-      </c>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="8">
-        <v>44378</v>
+        <v>44197</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
@@ -1388,42 +1396,44 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="8">
-        <v>44562</v>
+        <v>44378</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="8">
-        <v>44743</v>
+        <v>44562</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
       <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44743</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="15"/>
@@ -1433,7 +1443,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="15"/>
@@ -1443,7 +1453,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="15"/>
@@ -1453,7 +1463,7 @@
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="15"/>
@@ -1463,7 +1473,7 @@
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="15"/>
@@ -1473,7 +1483,7 @@
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="15"/>
@@ -1483,7 +1493,7 @@
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="15"/>
@@ -1493,7 +1503,7 @@
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="15"/>
@@ -1503,24 +1513,34 @@
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="2">
-        <v>5</v>
-      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
       <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset/Financial.xlsx
+++ b/dataset/Financial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkauffmann/Desktop/Azasimul/azasimul/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC2F504-7D7E-AA4E-8B17-5C10F1759CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD64DD-A10E-5E4C-9296-F4B61999E86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="2220" windowWidth="19260" windowHeight="8820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="2220" windowWidth="19260" windowHeight="8820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Unit</t>
   </si>
@@ -121,15 +121,6 @@
   </si>
   <si>
     <t>Average Cost of Energy to Charge System</t>
-  </si>
-  <si>
-    <t>Skilled Labor + load</t>
-  </si>
-  <si>
-    <t>Unskilled Labor + load</t>
-  </si>
-  <si>
-    <t>$/hr</t>
   </si>
   <si>
     <t>$/kWh</t>
@@ -633,7 +624,7 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1052,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB49170-8CCC-F14B-B6A8-CDFD038F79A5}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1227,12 +1218,8 @@
       <c r="G17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -1247,13 +1234,7 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1271,12 +1252,8 @@
       <c r="G19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
@@ -1294,12 +1271,7 @@
       <c r="G20" s="13">
         <v>10</v>
       </c>
-      <c r="H20" s="14">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
